--- a/Datos-Diputados-Completos/1996 - Diputados - nacionales.xlsx
+++ b/Datos-Diputados-Completos/1996 - Diputados - nacionales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIVTUS\Desktop\Vinculacion\codigo\Vinculacion\Datos-Diputados-Completos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCAEA3A-CA6F-4135-BA43-5081E2CDB51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658D392C-CCAA-47FE-9340-083E810366C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9446,7 +9446,7 @@
         <v>285</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G64" s="2">
         <v>2</v>
@@ -9618,7 +9618,7 @@
         <v>285</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G66" s="2">
         <v>25</v>
